--- a/data/data_tmp/WTI-riskDriverType-Pnl-factor-calibrations.xlsx
+++ b/data/data_tmp/WTI-riskDriverType-Pnl-factor-calibrations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgi.POSTEVITA\Documents\ML\dynamic-trading\data\data_tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E21278-0620-46BC-9EB9-E364E1D0B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="riskDriverType" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="TARCH" sheetId="5" r:id="rId5"/>
     <sheet name="AR_TARCH" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -24,9 +30,6 @@
     <t>riskDriverType</t>
   </si>
   <si>
-    <t>Pnl</t>
-  </si>
-  <si>
     <t>param</t>
   </si>
   <si>
@@ -73,13 +76,16 @@
   </si>
   <si>
     <t>gamma</t>
+  </si>
+  <si>
+    <t>PnL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +148,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -188,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +234,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,6 +286,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,21 +479,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -452,37 +504,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>8.8878546595611528E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.0008887854659561153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0.77279229003227179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.7727922900322718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>0.1005288770640802</v>
@@ -494,80 +546,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.8936522974893415</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-9.3065128002911945E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4">
-        <v>-0.09306512800291195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>0.729940048388102</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7.7807609668665775E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.07780760966866578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>9.5733795362445612E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.09573379536244561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0.69627064112792447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.6962706411279245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B9">
-        <v>0.06103817075380358</v>
+        <v>6.1038170753803578E-2</v>
       </c>
     </row>
   </sheetData>
@@ -576,48 +628,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2">
-        <v>-0.0009891166833161688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-9.8911668331616879E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2.2683138556355742E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0.002268313855635574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0.19999933303310419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0.1999993330331042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B5">
-        <v>0.7800007428514291</v>
+        <v>0.78000074285142906</v>
       </c>
     </row>
   </sheetData>
@@ -626,61 +678,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2">
-        <v>-0.001065093801448775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-1.065093801448775E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2.2691231020640109E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0.002269123102064011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4">
         <v>0.1999995091724977</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.77500054227512671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0.7750005422751267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B6">
-        <v>0.00999997185428371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9.9999718542837096E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -692,72 +744,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2">
-        <v>0.001706453550795025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.706453550795025E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2.0103704235223969E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0.002010370423522397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4">
         <v>0.199979546336019</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.77502317817550703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0.775023178175507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B6">
-        <v>0.009999039529196617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9.9990395291966166E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.7760529830641222</v>
+        <v>0.77605298306412218</v>
       </c>
     </row>
   </sheetData>
